--- a/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
@@ -12,19 +12,20 @@
     <sheet name="Grafton Wisconsin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Hyderabad India" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Juarez Casa SS" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Lincoln Missouri" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Piedras Negras Jakel Mexico" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Rosemont Illinois" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Tipp City Ohio" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Juarez Casa I" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Lavergne Tennessee" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Lincoln Missouri" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Piedras Negras Jakel Mexico" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Rosemont Illinois" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Tipp City Ohio" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Juarez Casa I" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -38,7 +39,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -137,6 +138,9 @@
     <t xml:space="preserve">Juarez Casa SS</t>
   </si>
   <si>
+    <t xml:space="preserve">Lavergne Tennessee</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lincoln Missouri</t>
   </si>
   <si>
@@ -162,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="14">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -176,6 +180,7 @@
     <numFmt numFmtId="175" formatCode="0.0%"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -211,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -226,6 +231,7 @@
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,25 +929,25 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="n">
-        <v>0.0769</v>
+        <v>0</v>
       </c>
       <c r="M2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="10" t="n">
-        <v>0.0787</v>
+        <v>0</v>
       </c>
       <c r="O2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="10" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="10" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="10" t="n">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="S2" s="10" t="n">
         <v>0</v>
@@ -950,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="10" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="V2" s="10" t="n">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="W2" s="10" t="n">
-        <v>0.3906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -994,25 +1000,25 @@
         <v>0</v>
       </c>
       <c r="L3" s="10" t="n">
-        <v>0.06921</v>
+        <v>0</v>
       </c>
       <c r="M3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="10" t="n">
-        <v>0.07083</v>
+        <v>0</v>
       </c>
       <c r="O3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="10" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="10" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="10" t="n">
-        <v>0.13536</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10" t="n">
         <v>0</v>
@@ -1021,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="10" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="V3" s="10" t="n">
-        <v>0.13536</v>
+        <v>0</v>
       </c>
       <c r="W3" s="10" t="n">
-        <v>0.35154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1099,6 +1105,116 @@
       </c>
       <c r="W4" s="10" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="10" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1205,18 +1321,42 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
+      <c r="G2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="M2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="O2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" t="n">
+        <v>0.1504</v>
+      </c>
       <c r="S2" s="11" t="n">
         <v>0</v>
       </c>
@@ -1224,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="11" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="V2" s="11" t="n">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="W2" s="11" t="n">
-        <v>0</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="3">
@@ -1252,18 +1392,42 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="G3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>0.06921</v>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>0.07083</v>
+      </c>
+      <c r="O3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="11" t="n">
+        <v>0.15003</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="11" t="n">
+        <v>0.13536</v>
+      </c>
       <c r="S3" s="11" t="n">
         <v>0</v>
       </c>
@@ -1271,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="11" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="V3" s="11" t="n">
-        <v>0</v>
+        <v>0.13536</v>
       </c>
       <c r="W3" s="11" t="n">
-        <v>0</v>
+        <v>0.35154</v>
       </c>
     </row>
     <row r="4">
@@ -1453,44 +1617,20 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
       <c r="S2" s="12" t="n">
         <v>0</v>
       </c>
@@ -1518,46 +1658,26 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
       <c r="S3" s="12" t="n">
         <v>0</v>
       </c>
@@ -1571,6 +1691,77 @@
         <v>0</v>
       </c>
       <c r="W3" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1670,61 +1861,286 @@
         <v>43</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="13" t="n">
+      <c r="G2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1736,64 +2152,66 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="13" t="n">
+      <c r="G3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2109,7 +2527,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2180,7 +2598,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2251,7 +2669,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2437,31 +2855,31 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>0.0571</v>
+        <v>0.0556</v>
       </c>
       <c r="P2" s="3" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>0.1102</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="n">
         <v>0.0286</v>
       </c>
-      <c r="Q2" s="3" t="n">
-        <v>0.0278</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0.1133</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3" t="n">
-        <v>0.0294</v>
-      </c>
       <c r="U2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.0292</v>
+        <v>0.0283</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.1401</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="3">
@@ -2508,31 +2926,31 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>0.05139</v>
+        <v>0.05004</v>
       </c>
       <c r="P3" s="3" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="Q3" s="3" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>0.09918</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="n">
         <v>0.02574</v>
       </c>
-      <c r="Q3" s="3" t="n">
-        <v>0.02502</v>
-      </c>
-      <c r="R3" s="3" t="n">
-        <v>0.10197</v>
-      </c>
-      <c r="S3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3" t="n">
-        <v>0.02646</v>
-      </c>
       <c r="U3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.02628</v>
+        <v>0.02547</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.12609</v>
+        <v>0.12258</v>
       </c>
     </row>
     <row r="4">
@@ -3031,7 +3449,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3100,7 +3520,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3297,19 +3719,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0.0169</v>
+        <v>0.0172</v>
       </c>
       <c r="T2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0.0172</v>
+        <v>0.0175</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.0341</v>
+        <v>0.0347</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.0338</v>
+        <v>0.0344</v>
       </c>
     </row>
     <row r="3">
@@ -3368,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0.01521</v>
+        <v>0.01548</v>
       </c>
       <c r="T3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0.01548</v>
+        <v>0.01575</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.03069</v>
+        <v>0.03123</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.03042</v>
+        <v>0.03096</v>
       </c>
     </row>
     <row r="4">
@@ -4089,400 +4511,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0.0667</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0.1274</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="7" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="P7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="R7" s="7" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="S7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="V7" s="7" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="W7" s="7" t="n">
-        <v>0.0329</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="n">
-        <v>0.00954</v>
-      </c>
-      <c r="P8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="R8" s="7" t="n">
-        <v>0.01899</v>
-      </c>
-      <c r="S8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="V8" s="7" t="n">
-        <v>0.00945</v>
-      </c>
-      <c r="W8" s="7" t="n">
-        <v>0.02961</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="7" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="H9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>0.0109</v>
-      </c>
-      <c r="J9" s="7" t="n">
-        <v>0.0216</v>
-      </c>
-      <c r="K9" s="7" t="n">
-        <v>0.0449</v>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4730,16 +4758,16 @@
         <v>29</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0</v>
+        <v>0.1274</v>
       </c>
       <c r="K4" s="8" t="n">
         <v>0</v>
@@ -4794,58 +4822,32 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
       <c r="W5" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4859,64 +4861,62 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="8" t="n">
-        <v>0.0714</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="8" t="n">
-        <v>0.068</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="8" t="n">
-        <v>0.127</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="8" t="n">
-        <v>0.1728</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="8" t="n">
-        <v>0.0187</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="8" t="n">
-        <v>0.1087</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="8" t="n">
-        <v>0.0227</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="8" t="n">
-        <v>0.1591</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="8" t="n">
-        <v>0.5664</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -4933,22 +4933,22 @@
         <v>31</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>0.06426</v>
+        <v>0</v>
       </c>
       <c r="I7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>0.0612</v>
+        <v>0</v>
       </c>
       <c r="K7" s="8" t="n">
         <v>0</v>
@@ -4963,31 +4963,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.1143</v>
+        <v>0.0105</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.15552</v>
+        <v>0.0211</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.01683</v>
+        <v>0</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.09783</v>
+        <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.02043</v>
+        <v>0.0105</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.14319</v>
+        <v>0.0105</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>0.50976</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="8">
@@ -5004,60 +5004,131 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="R8" s="8" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="V8" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="W8" s="8" t="n">
+        <v>0.02961</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="8" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H8" s="8" t="n">
-        <v>0.0125</v>
-      </c>
-      <c r="I8" s="8" t="n">
+      <c r="G9" s="8" t="n">
         <v>0.0108</v>
       </c>
-      <c r="J8" s="8" t="n">
-        <v>0.0523</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>0.0322</v>
-      </c>
-      <c r="L8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8" t="n">
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0.0449</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5372,32 +5443,58 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="W5" s="9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5411,62 +5508,206 @@
         <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0.1728</v>
+      </c>
+      <c r="S6" s="9" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>0.1087</v>
+      </c>
+      <c r="U6" s="9" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="V6" s="9" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="W6" s="9" t="n">
+        <v>0.5664</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="9" t="n">
-        <v>0.5</v>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0.06426</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0.0612</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0.15552</v>
+      </c>
+      <c r="S7" s="9" t="n">
+        <v>0.01683</v>
+      </c>
+      <c r="T7" s="9" t="n">
+        <v>0.09783</v>
+      </c>
+      <c r="U7" s="9" t="n">
+        <v>0.02043</v>
+      </c>
+      <c r="V7" s="9" t="n">
+        <v>0.14319</v>
+      </c>
+      <c r="W7" s="9" t="n">
+        <v>0.50976</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0.0523</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0</v>
+        <v>0.3636</v>
       </c>
       <c r="M4" s="11" t="n">
         <v>0</v>
@@ -1951,9 +1951,7 @@
       <c r="K3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" s="13"/>
       <c r="M3" s="13" t="n">
         <v>0</v>
       </c>
@@ -2087,7 +2085,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2158,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2527,7 +2525,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2598,7 +2596,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2669,7 +2667,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2973,22 +2971,22 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
         <v>0.027</v>
       </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="n">
+      <c r="J4" s="3" t="n">
+        <v>0.0531</v>
+      </c>
+      <c r="K4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="n">
         <v>0.0278</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>0.0545</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
@@ -3450,7 +3448,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3521,7 +3519,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3840,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>0.0172</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -4822,7 +4820,9 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -4863,7 +4863,9 @@
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -4930,29 +4932,19 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.0639</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="8" t="n">
         <v>0</v>
       </c>
@@ -4963,16 +4955,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0106</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.0211</v>
+        <v>0</v>
       </c>
       <c r="S7" s="8" t="n">
         <v>0</v>
@@ -4981,13 +4973,13 @@
         <v>0</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.0105</v>
+        <v>0</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>0.0329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5004,10 +4996,10 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8" t="n">
         <v>0</v>
@@ -5034,16 +5026,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="8" t="n">
-        <v>0.00954</v>
+        <v>0.0106</v>
       </c>
       <c r="P8" s="8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="8" t="n">
-        <v>0.00945</v>
+        <v>0.0105</v>
       </c>
       <c r="R8" s="8" t="n">
-        <v>0.01899</v>
+        <v>0.0211</v>
       </c>
       <c r="S8" s="8" t="n">
         <v>0</v>
@@ -5052,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
-        <v>0.00945</v>
+        <v>0.0105</v>
       </c>
       <c r="V8" s="8" t="n">
-        <v>0.00945</v>
+        <v>0.0105</v>
       </c>
       <c r="W8" s="8" t="n">
-        <v>0.02961</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="9">
@@ -5075,60 +5067,131 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="R9" s="8" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="V9" s="8" t="n">
+        <v>0.00945</v>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>0.02961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G10" s="8" t="n">
         <v>0.0108</v>
       </c>
-      <c r="H9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8" t="n">
+      <c r="H10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="n">
         <v>0.0109</v>
       </c>
-      <c r="J9" s="8" t="n">
+      <c r="J10" s="8" t="n">
         <v>0.0216</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K10" s="8" t="n">
         <v>0.0449</v>
       </c>
-      <c r="L9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8" t="n">
+      <c r="L10" s="8" t="n">
+        <v>0.0349</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5460,9 +5523,7 @@
       <c r="K5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="9"/>
       <c r="M5" s="9" t="n">
         <v>0</v>
       </c>
@@ -5511,7 +5572,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -5582,7 +5643,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -5653,13 +5714,13 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.029</v>
+        <v>0.0289</v>
       </c>
       <c r="H8" s="9" t="n">
         <v>0.0125</v>
@@ -5668,13 +5729,13 @@
         <v>0.0108</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>0.0523</v>
+        <v>0.0522</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0.0322</v>
+        <v>0.0321</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
@@ -610,7 +610,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -681,7 +681,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -752,7 +752,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -776,37 +776,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1316,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.2817</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1387,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.2817</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1458,7 +1458,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.2817</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1482,37 +1482,37 @@
         <v>0.3636</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.169025</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.169025</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.0563416666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.169025</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.6761</v>
       </c>
     </row>
   </sheetData>
@@ -2084,9 +2084,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2155,9 +2153,7 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2525,7 +2521,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2596,7 +2592,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2667,7 +2663,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2823,7 +2819,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0806</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2894,7 +2890,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0806</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2965,7 +2961,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0806</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2989,37 +2985,37 @@
         <v>0.0278</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.1934</v>
       </c>
     </row>
     <row r="5">
@@ -3447,9 +3443,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3518,9 +3512,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3675,7 +3667,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.0507</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3746,7 +3738,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.0507</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3817,7 +3809,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.0507</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3841,37 +3833,37 @@
         <v>0.0172</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.030425</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.030425</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.0101416666666667</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.030425</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="5">
@@ -4380,9 +4372,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4451,9 +4441,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4608,7 +4596,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4679,7 +4667,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4750,7 +4738,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4774,37 +4762,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="5">
@@ -4996,7 +4984,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0993</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5067,7 +5055,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0993</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5138,7 +5126,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0993</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5162,37 +5150,37 @@
         <v>0.0349</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0</v>
+        <v>0.059575</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0</v>
+        <v>0.059575</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0</v>
+        <v>0.0198583333333333</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0</v>
+        <v>0.059575</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0</v>
+        <v>0.2383</v>
       </c>
     </row>
   </sheetData>
@@ -5572,7 +5560,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.1048</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -5643,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.1048</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -5714,7 +5702,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.0776</v>
+        <v>0.1048</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -5738,37 +5726,37 @@
         <v>0.021</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>0</v>
+        <v>0.062875</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="Q8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="R8" s="9" t="n">
-        <v>0</v>
+        <v>0.062875</v>
       </c>
       <c r="S8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="T8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="U8" s="9" t="n">
-        <v>0</v>
+        <v>0.0209583333333333</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>0</v>
+        <v>0.062875</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>0</v>
+        <v>0.2515</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
@@ -19,13 +19,14 @@
     <sheet name="Tipp City Ohio" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Juarez Casa I" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Milwaukee Pmc Hq Wisconsin" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Milwaukee Wisconsin" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -159,6 +160,9 @@
     <t xml:space="preserve">Milwaukee Pmc Hq Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">Milwaukee Wisconsin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
   </si>
 </sst>
@@ -166,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="14">
+  <numFmts count="15">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -181,6 +185,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -216,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -232,6 +237,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,37 +782,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.037025</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.037025</v>
+        <v>0.03085</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.037025</v>
+        <v>0.03085</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.1481</v>
+        <v>0.1234</v>
       </c>
     </row>
   </sheetData>
@@ -1316,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.2817</v>
+        <v>0.2899</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1387,7 +1393,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.2817</v>
+        <v>0.2899</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1458,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.2817</v>
+        <v>0.2899</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1482,37 +1488,37 @@
         <v>0.3636</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.169025</v>
+        <v>0.315</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.169025</v>
+        <v>0.14495</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0563416666666667</v>
+        <v>0.0483166666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.169025</v>
+        <v>0.14495</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.6761</v>
+        <v>0.5798</v>
       </c>
     </row>
   </sheetData>
@@ -1952,9 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="13"/>
-      <c r="M3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" s="13"/>
       <c r="N3" s="13" t="n">
         <v>0</v>
       </c>
@@ -2082,61 +2086,217 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="14" t="n">
+      <c r="G2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2148,64 +2308,64 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="14" t="n">
+      <c r="G3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2819,7 +2979,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0806</v>
+        <v>0.0833</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2890,7 +3050,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0806</v>
+        <v>0.0833</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2961,61 +3121,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0806</v>
+        <v>0.0833</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.0263</v>
+        <v>0.027</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.027</v>
+        <v>0.0278</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0531</v>
+        <v>0.0545</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0278</v>
+        <v>0.0286</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.04835</v>
+        <v>0.0283</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.04835</v>
+        <v>0.04165</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0138833333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.04835</v>
+        <v>0.04165</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1934</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="5">
@@ -3667,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0507</v>
+        <v>0.0508</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3738,7 +3898,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0507</v>
+        <v>0.0508</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3809,7 +3969,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0507</v>
+        <v>0.0508</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3833,37 +3993,37 @@
         <v>0.0172</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.030425</v>
+        <v>0.0172</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.030425</v>
+        <v>0.0254</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0101416666666667</v>
+        <v>0.00846666666666667</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.030425</v>
+        <v>0.0254</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.1217</v>
+        <v>0.1016</v>
       </c>
     </row>
     <row r="5">
@@ -4596,7 +4756,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1274</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4667,7 +4827,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1274</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4738,7 +4898,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.1282</v>
+        <v>0.1274</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4762,37 +4922,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0.0637</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0212333333333333</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.076925</v>
+        <v>0.0637</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.3077</v>
+        <v>0.2548</v>
       </c>
     </row>
     <row r="5">
@@ -4936,9 +5096,7 @@
       <c r="L7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="8" t="n">
         <v>0</v>
       </c>
@@ -4984,7 +5142,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0993</v>
+        <v>0.1115</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5055,7 +5213,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0993</v>
+        <v>0.1115</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5126,7 +5284,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0993</v>
+        <v>0.1115</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5150,37 +5308,37 @@
         <v>0.0349</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0118</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.059575</v>
+        <v>0.0923</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.059575</v>
+        <v>0.05575</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0198583333333333</v>
+        <v>0.0185833333333333</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.059575</v>
+        <v>0.05575</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.2383</v>
+        <v>0.223</v>
       </c>
     </row>
   </sheetData>
@@ -5282,7 +5440,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.0521</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5353,7 +5511,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.0521</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5424,7 +5582,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.0521</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5448,37 +5606,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0526</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.0508</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.02605</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.02605</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="5">
@@ -5512,9 +5670,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="9" t="n">
         <v>0</v>
       </c>
@@ -5560,7 +5716,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.1048</v>
+        <v>0.1334</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -5631,7 +5787,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.1048</v>
+        <v>0.1334</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -5702,61 +5858,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.1048</v>
+        <v>0.1334</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.0289</v>
+        <v>0.0295</v>
       </c>
       <c r="H8" s="9" t="n">
-        <v>0.0125</v>
+        <v>0.0128</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>0.0108</v>
+        <v>0.011</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>0.0522</v>
+        <v>0.0533</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0.0321</v>
+        <v>0.0328</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0.021</v>
+        <v>0.0234</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0245</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>0.062875</v>
+        <v>0.0807</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="Q8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="R8" s="9" t="n">
-        <v>0.062875</v>
+        <v>0.0667</v>
       </c>
       <c r="S8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="T8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="U8" s="9" t="n">
-        <v>0.0209583333333333</v>
+        <v>0.0222333333333333</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>0.062875</v>
+        <v>0.0667</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>0.2515</v>
+        <v>0.2668</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
+++ b/outputs/SORs/SOR Testing_PES NA Motors Solutions.xlsx
@@ -616,7 +616,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0617</v>
+        <v>0.0621</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -687,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0617</v>
+        <v>0.0621</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -758,7 +758,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0617</v>
+        <v>0.0621</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -788,31 +788,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.03085</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.03085</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.1234</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.2899</v>
+        <v>0.2941</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1393,7 +1393,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.2899</v>
+        <v>0.2941</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1464,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.2899</v>
+        <v>0.2941</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1494,31 +1494,31 @@
         <v>0.315</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.14495</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0483166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.14495</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.5798</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1962,9 +1962,7 @@
       <c r="N3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="13"/>
       <c r="P3" s="13" t="n">
         <v>0</v>
       </c>
@@ -2979,7 +2977,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0833</v>
+        <v>0.0836</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3050,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0833</v>
+        <v>0.0836</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3121,7 +3119,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0833</v>
+        <v>0.0836</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3151,31 +3149,31 @@
         <v>0.0283</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.04165</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0138833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.04165</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.1666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3827,7 +3825,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3898,7 +3896,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3969,7 +3967,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0508</v>
+        <v>0.0509</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3999,31 +3997,31 @@
         <v>0.0172</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.00846666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.0254</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.1016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4928,31 +4926,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.0637</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0212333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.0637</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.2548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5100,9 +5098,7 @@
       <c r="N7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="8"/>
       <c r="P7" s="8" t="n">
         <v>0</v>
       </c>
@@ -5142,7 +5138,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.1115</v>
+        <v>0.1112</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5213,7 +5209,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.1115</v>
+        <v>0.1112</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5284,7 +5280,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.1115</v>
+        <v>0.1112</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5302,43 +5298,43 @@
         <v>0.0216</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.0449</v>
+        <v>0.0444</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.0349</v>
+        <v>0.0345</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0118</v>
+        <v>0.0116</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.0923</v>
+        <v>0.0912</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0.0158833333333333</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0.0158833333333333</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.05575</v>
+        <v>0.04765</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0.0158833333333333</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0.0158833333333333</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0185833333333333</v>
+        <v>0.0158833333333333</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.05575</v>
+        <v>0.04765</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.223</v>
+        <v>0.1906</v>
       </c>
     </row>
   </sheetData>
@@ -5440,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.0521</v>
+        <v>0.0526</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5511,7 +5507,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.0521</v>
+        <v>0.0526</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5582,7 +5578,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.0521</v>
+        <v>0.0526</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5612,31 +5608,31 @@
         <v>0.0508</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.02605</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.02605</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.1042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5674,9 +5670,7 @@
       <c r="N5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="9"/>
       <c r="P5" s="9" t="n">
         <v>0</v>
       </c>
@@ -5716,7 +5710,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="9" t="n">
-        <v>0.1334</v>
+        <v>0.1728</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -5787,7 +5781,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.1334</v>
+        <v>0.1728</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -5858,61 +5852,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="9" t="n">
-        <v>0.1334</v>
+        <v>0.1728</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="9" t="n">
-        <v>0.0295</v>
+        <v>0.0315</v>
       </c>
       <c r="H8" s="9" t="n">
         <v>0.0128</v>
       </c>
       <c r="I8" s="9" t="n">
-        <v>0.011</v>
+        <v>0.0111</v>
       </c>
       <c r="J8" s="9" t="n">
-        <v>0.0533</v>
+        <v>0.0554</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>0.0328</v>
+        <v>0.033</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0.0234</v>
+        <v>0.0236</v>
       </c>
       <c r="M8" s="9" t="n">
-        <v>0.0245</v>
+        <v>0.0246</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>0.0807</v>
+        <v>0.0811</v>
       </c>
       <c r="O8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0373</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0246833333333333</v>
       </c>
       <c r="Q8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0246833333333333</v>
       </c>
       <c r="R8" s="9" t="n">
-        <v>0.0667</v>
+        <v>0.07405</v>
       </c>
       <c r="S8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0246833333333333</v>
       </c>
       <c r="T8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0246833333333333</v>
       </c>
       <c r="U8" s="9" t="n">
-        <v>0.0222333333333333</v>
+        <v>0.0246833333333333</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>0.0667</v>
+        <v>0.07405</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>0.2668</v>
+        <v>0.2962</v>
       </c>
     </row>
   </sheetData>
